--- a/Lab 8/Data time.xlsx
+++ b/Lab 8/Data time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\Desktop\Edumacation\ATSC 303\Lab 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088F53F-3DC9-4D1C-947C-8CBA3047B667}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F06B09A-F736-42DF-AE17-8EBC87D742B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Low</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>End</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bigger_grant(cg,acc) would always return the second one in case of a tie. bigger_grant(acc,cg)  returns the first one</t>
-  </si>
-  <si>
-    <t>does not check for ties</t>
-  </si>
-  <si>
-    <t>incomplete template comment</t>
   </si>
 </sst>
 </file>
@@ -370,15 +361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G1" sqref="G1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -391,11 +382,8 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -411,11 +399,8 @@
       <c r="E2" s="1">
         <v>0.49687500000000001</v>
       </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -431,11 +416,8 @@
       <c r="E3" s="1">
         <v>0.50034722222222217</v>
       </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -452,7 +434,7 @@
         <v>0.50381944444444404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -469,7 +451,7 @@
         <v>0.50729166666666603</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>0</v>
       </c>

--- a/Lab 8/Data time.xlsx
+++ b/Lab 8/Data time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\Desktop\Edumacation\ATSC 303\Lab 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F06B09A-F736-42DF-AE17-8EBC87D742B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA2446-736B-4B7A-9642-02D4561D8BE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
